--- a/BackTest/2020-01-16 BackTest XSR.xlsx
+++ b/BackTest/2020-01-16 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3897900.007142835</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4177553.619242835</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5035540.485642835</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5165839.998042835</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4586473.131642835</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4338417.804142836</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4673141.071042836</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4761048.380642836</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3891667.181942836</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3973532.895842836</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4377181.635642836</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4372199.290242836</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4372199.290242836</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5200325.769142836</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5387689.357742837</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5387689.357742837</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5616193.510242837</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5302745.596242837</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5302745.596242837</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4908724.074342837</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4908636.074342837</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5408097.556142837</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5322057.921342837</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5366427.128242836</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5578200.601242837</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5578122.601242837</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5578485.887442837</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5783196.524242837</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5919818.386542837</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5669116.826442837</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5669116.826442837</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6070837.169142837</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6529186.824142837</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6542873.060942837</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5865828.387642837</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5865828.387642837</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5865828.387642837</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6117998.985042837</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6455328.071142837</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6710367.140442837</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-6526160.025142836</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8526160.025142837</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8301890.778142837</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-8302166.548142836</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-8586924.177042836</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-8586447.419942837</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-8416778.596542837</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8180599.357842837</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-8616610.780542836</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-8419388.163642835</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-8419663.933642834</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-8449993.413042834</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-8449993.413042834</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-8754013.468442835</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-9300969.577210894</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-9346447.736510893</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-9409264.039610893</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-9414633.419710893</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-10220644.07331089</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-10242552.74231089</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10299911.94051089</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-10280325.04361089</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-10279569.75131089</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-10093031.60321089</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-10093141.74811089</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-10100600.05501089</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-9908294.954710893</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-9986998.740010893</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-10247860.79571089</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-10456925.09001089</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-10457604.64601089</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-10457604.64601089</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-10976952.27321089</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-11484717.11011089</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-11822933.75781089</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-11798613.84491089</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-11852859.32691089</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-12008291.71991089</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-12008291.71991089</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-11998291.71991089</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-12106774.08171089</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-12129181.15481089</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-12215837.11331089</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-14657298.44571089</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-14631417.62721089</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-14285426.34781089</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -13453,10 +13453,14 @@
         <v>-24692076.68849974</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="J396" t="n">
+        <v>5.825</v>
+      </c>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
@@ -13489,8 +13493,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13529,19 @@
         <v>-24614889.85939974</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J398" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13618,10 +13636,14 @@
         <v>-26094513.09649973</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>5.826</v>
+      </c>
+      <c r="J401" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -13651,11 +13673,19 @@
         <v>-25755698.06519973</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J402" t="n">
+        <v>5.826</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13714,19 @@
         <v>-26018239.80779973</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J403" t="n">
+        <v>5.826</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,12 +13755,14 @@
         <v>-25573784.09459973</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>5.912</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -13756,12 +13796,14 @@
         <v>-25499774.53359973</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>5.919</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13795,12 +13837,14 @@
         <v>-25499774.53359973</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>5.984</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13837,7 +13881,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13874,7 +13920,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13911,7 +13959,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13948,7 +13998,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13985,7 +14037,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14022,7 +14076,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14059,7 +14115,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14093,10 +14151,14 @@
         <v>-25866010.42569974</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J414" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14133,7 +14195,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,7 +14234,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14207,7 +14273,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14244,7 +14312,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14281,7 +14351,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14318,7 +14390,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14355,7 +14429,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,10 +14465,14 @@
         <v>-25904499.24189974</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J422" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,10 +14506,14 @@
         <v>-25904736.06159974</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J423" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,10 +14547,14 @@
         <v>-25904736.06159974</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J424" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14503,7 +14591,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14537,10 +14627,14 @@
         <v>-26234754.41479974</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="J426" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14574,10 +14668,14 @@
         <v>-26975756.75329974</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>5.883</v>
+      </c>
+      <c r="J427" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,10 +14709,14 @@
         <v>-29298984.18889974</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>5.852</v>
+      </c>
+      <c r="J428" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14651,7 +14753,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14688,7 +14792,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14725,7 +14831,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,12 +14867,12 @@
         <v>-28035156.62899974</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>5.825</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14801,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14838,7 +14948,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,10 +14984,14 @@
         <v>-27916674.06149974</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>5.947</v>
+      </c>
+      <c r="J435" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,12 +15025,14 @@
         <v>-27555422.12409974</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>5.901</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14948,12 +15066,14 @@
         <v>-27606321.71309974</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>5.947</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14987,10 +15107,14 @@
         <v>-27403239.68799974</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J438" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15024,12 +15148,14 @@
         <v>-27403239.68799974</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>5.9</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15063,10 +15189,14 @@
         <v>-27403239.68799974</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J440" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,10 +15230,14 @@
         <v>-27303139.68799974</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J441" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15137,12 +15271,14 @@
         <v>-27303139.68799974</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>5.997</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15176,10 +15312,14 @@
         <v>-27268341.16849974</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>5.997</v>
+      </c>
+      <c r="J443" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15216,7 +15356,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15253,7 +15395,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15290,7 +15434,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15324,12 +15470,12 @@
         <v>-28211396.39629974</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>5.896</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15363,12 +15509,12 @@
         <v>-28049567.10579974</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,12 +15548,14 @@
         <v>-26336244.97569974</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>5.893</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15441,12 +15589,12 @@
         <v>-26336244.97569974</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15483,7 +15631,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15520,7 +15670,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15557,7 +15709,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,7 +15748,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15628,10 +15784,14 @@
         <v>-26556729.21493968</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>5.968</v>
+      </c>
+      <c r="J455" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15665,10 +15825,14 @@
         <v>-26555160.91563968</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>5.968</v>
+      </c>
+      <c r="J456" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15702,10 +15866,14 @@
         <v>-26556916.06943968</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J457" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15739,10 +15907,14 @@
         <v>-26556916.06943968</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>5.975</v>
+      </c>
+      <c r="J458" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15776,10 +15948,14 @@
         <v>-26558025.79843967</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>5.975</v>
+      </c>
+      <c r="J459" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15813,10 +15989,14 @@
         <v>-26557642.27923967</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J460" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15853,7 +16033,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15890,7 +16072,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,10 +16108,14 @@
         <v>-26682937.77323968</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J463" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15961,12 +16149,14 @@
         <v>-26812627.64933968</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>5.92</v>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16000,10 +16190,14 @@
         <v>-26812627.64933968</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>5.915</v>
+      </c>
+      <c r="J465" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16037,12 +16231,12 @@
         <v>-27272585.61553968</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>5.915</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16076,10 +16270,14 @@
         <v>-27272585.61553968</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="J467" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16113,12 +16311,12 @@
         <v>-27272585.61553968</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16152,12 +16350,12 @@
         <v>-27258844.04443968</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16191,12 +16389,12 @@
         <v>-27205979.90063968</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>5.915</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16230,12 +16428,12 @@
         <v>-26991843.47363967</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16269,12 +16467,12 @@
         <v>-26807359.31493967</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16308,12 +16506,12 @@
         <v>-26809768.31493967</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>6</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16347,12 +16545,12 @@
         <v>-26809768.31493967</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>5.999</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16386,12 +16584,12 @@
         <v>-26809064.80293968</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>5.999</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16428,7 +16626,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,7 +16665,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16502,7 +16704,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16539,7 +16743,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16576,7 +16782,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16613,7 +16821,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16650,7 +16860,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16687,7 +16899,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16724,7 +16938,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16761,7 +16977,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16798,7 +17016,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16832,12 +17052,12 @@
         <v>-24641658.02313968</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="J487" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16874,7 +17094,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16911,7 +17133,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16945,12 +17169,12 @@
         <v>-24584501.43413968</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J490" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16987,7 +17211,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17024,7 +17250,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,10 +17286,14 @@
         <v>-24699412.21263968</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="J493" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,7 +17330,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,7 +17369,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,7 +17408,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17209,7 +17447,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17246,7 +17486,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17280,12 +17522,12 @@
         <v>-24661266.98323968</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J499" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17322,7 +17564,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17359,7 +17603,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17396,7 +17642,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17433,7 +17681,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17470,7 +17720,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17507,7 +17759,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,7 +17798,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,7 +17837,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17618,7 +17876,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17655,7 +17915,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17689,12 +17951,14 @@
         <v>-24845533.09673968</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>6.02</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17728,10 +17992,14 @@
         <v>-23796358.28793968</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="J511" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17768,7 +18036,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17805,7 +18075,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17839,12 +18111,12 @@
         <v>-23796358.28793968</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>6.035</v>
-      </c>
-      <c r="J514" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17878,12 +18150,12 @@
         <v>-23811810.30363968</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>6.035</v>
-      </c>
-      <c r="J515" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17917,12 +18189,12 @@
         <v>-23799345.30363968</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>6.034</v>
-      </c>
-      <c r="J516" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17956,12 +18228,12 @@
         <v>-23744543.36203968</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>6.035</v>
-      </c>
-      <c r="J517" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17995,10 +18267,14 @@
         <v>-23744543.36203968</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>6.055</v>
+      </c>
+      <c r="J518" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18032,10 +18308,14 @@
         <v>-23740637.47343968</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>6.055</v>
+      </c>
+      <c r="J519" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18069,10 +18349,14 @@
         <v>-23740637.47343968</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>6.059</v>
+      </c>
+      <c r="J520" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18109,7 +18393,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18143,12 +18429,12 @@
         <v>-23864987.37793968</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>6.059</v>
-      </c>
-      <c r="J522" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18185,7 +18471,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18222,7 +18510,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,7 +18549,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18296,7 +18588,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18333,7 +18627,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18370,7 +18666,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18407,7 +18705,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18444,7 +18744,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18481,7 +18783,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18518,7 +18822,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18555,7 +18861,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18592,7 +18900,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18629,7 +18939,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18666,7 +18978,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18703,7 +19017,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18740,7 +19056,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18777,7 +19095,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18814,7 +19134,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18848,12 +19170,12 @@
         <v>-24501358.49360309</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>6</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18890,7 +19212,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18924,12 +19248,12 @@
         <v>-24501268.49360309</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>6.052</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18966,7 +19290,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,12 +19326,12 @@
         <v>-24645954.34760309</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="J545" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19042,7 +19368,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19079,7 +19407,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19116,7 +19446,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19153,7 +19485,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19190,7 +19524,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,7 +19563,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19264,7 +19602,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19301,7 +19641,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19338,7 +19680,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19375,7 +19719,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19412,7 +19758,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19449,7 +19797,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19486,7 +19836,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19523,7 +19875,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19560,7 +19914,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19597,7 +19953,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,12 +19989,12 @@
         <v>-22919831.07985592</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>6.128</v>
-      </c>
-      <c r="J562" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19673,7 +20031,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19710,7 +20070,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19747,7 +20109,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19781,12 +20145,12 @@
         <v>-22874938.07985592</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>6.129</v>
-      </c>
-      <c r="J566" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19820,12 +20184,12 @@
         <v>-22863526.28535591</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19862,7 +20226,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19899,7 +20265,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,7 +20304,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19973,7 +20343,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20010,7 +20382,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20047,7 +20421,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20084,7 +20460,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20121,7 +20499,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20158,7 +20538,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20195,7 +20577,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20232,7 +20616,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20269,7 +20655,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20306,7 +20694,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20343,7 +20733,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20380,7 +20772,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20417,7 +20811,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20454,7 +20850,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20491,7 +20889,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20528,7 +20928,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20562,12 +20964,12 @@
         <v>-22379720.80428004</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="J587" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20604,7 +21006,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,12 +21042,12 @@
         <v>-23027371.97078004</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>6.133</v>
-      </c>
-      <c r="J589" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,12 +21081,12 @@
         <v>-23027371.97078004</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,12 +21120,12 @@
         <v>-23076749.21988004</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J591" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,12 +21159,12 @@
         <v>-23221840.37058004</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J592" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,12 +21198,12 @@
         <v>-23342790.09112922</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J593" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20836,7 +21240,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20870,12 +21276,12 @@
         <v>-23313322.26482922</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20912,7 +21318,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20946,12 +21354,12 @@
         <v>-23590554.32592922</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20988,7 +21396,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21025,7 +21435,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21062,7 +21474,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21099,7 +21513,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21136,7 +21552,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21173,7 +21591,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21210,7 +21630,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21247,7 +21669,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21284,7 +21708,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,7 +21747,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21358,7 +21786,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21395,7 +21825,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21432,7 +21864,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21469,7 +21903,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21506,7 +21942,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21543,7 +21981,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21580,7 +22020,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21614,12 +22056,12 @@
         <v>-24894976.11132922</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>6.053</v>
-      </c>
-      <c r="J615" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21656,7 +22098,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21693,7 +22137,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,7 +22176,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21767,7 +22215,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21804,7 +22254,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21841,7 +22293,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21878,7 +22332,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21915,7 +22371,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21952,7 +22410,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21989,7 +22449,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22026,7 +22488,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22063,7 +22527,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22100,7 +22566,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22137,7 +22605,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22174,7 +22644,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22211,7 +22683,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22248,7 +22722,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22285,7 +22761,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,7 +22800,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22359,7 +22839,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22396,7 +22878,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22433,7 +22917,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22470,7 +22956,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22507,7 +22995,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22544,7 +23034,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22581,7 +23073,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22618,7 +23112,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22655,7 +23151,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22692,7 +23190,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22729,7 +23229,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22766,7 +23268,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22803,7 +23307,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22840,7 +23346,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22877,7 +23385,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22914,7 +23424,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22951,7 +23463,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22985,12 +23499,12 @@
         <v>-28117094.25768542</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>6.015</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23027,7 +23541,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23064,7 +23580,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23101,7 +23619,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23138,7 +23658,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23175,7 +23697,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23212,7 +23736,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23249,7 +23775,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23286,7 +23814,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23323,7 +23853,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23360,7 +23892,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23397,7 +23931,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23434,7 +23970,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23471,7 +24009,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23508,7 +24048,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23545,7 +24087,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23582,7 +24126,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23619,7 +24165,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23656,7 +24204,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23693,7 +24243,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23727,12 +24279,12 @@
         <v>-29071642.21228542</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="J672" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23766,12 +24318,12 @@
         <v>-29071642.21228542</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>6.045</v>
-      </c>
-      <c r="J673" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23805,12 +24357,12 @@
         <v>-29645285.10348542</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>6.045</v>
-      </c>
-      <c r="J674" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23844,12 +24396,12 @@
         <v>-29530607.43358542</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>6.018</v>
-      </c>
-      <c r="J675" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23883,12 +24435,12 @@
         <v>-29530607.43358542</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23922,12 +24474,12 @@
         <v>-29530607.43358542</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="J677" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23964,7 +24516,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24001,7 +24555,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24038,7 +24594,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24075,7 +24633,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24112,7 +24672,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24149,7 +24711,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24186,7 +24750,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24223,7 +24789,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24260,7 +24828,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24297,7 +24867,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24334,7 +24906,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24371,7 +24945,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24408,7 +24984,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24445,7 +25023,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24482,7 +25062,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24516,12 +25098,12 @@
         <v>-29625683.29448658</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>6.137</v>
-      </c>
-      <c r="J693" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24555,12 +25137,12 @@
         <v>-29735985.25438658</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J694" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24594,12 +25176,12 @@
         <v>-29724475.20098658</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
-      </c>
-      <c r="I695" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J695" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24633,12 +25215,12 @@
         <v>-29654587.65798658</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
-      </c>
-      <c r="I696" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J696" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24672,12 +25254,12 @@
         <v>-29654587.65798658</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J697" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24711,12 +25293,12 @@
         <v>-29745498.99138658</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24750,12 +25332,12 @@
         <v>-29745248.99138658</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24789,12 +25371,12 @@
         <v>-29792573.06468658</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
-      </c>
-      <c r="I700" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24828,12 +25410,12 @@
         <v>-29824069.23498658</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
-      </c>
-      <c r="I701" t="n">
-        <v>6.138</v>
-      </c>
-      <c r="J701" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24867,12 +25449,12 @@
         <v>-30189287.30918658</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
-      </c>
-      <c r="I702" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24909,7 +25491,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24943,12 +25527,14 @@
         <v>-30100595.61938658</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>6.04</v>
       </c>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24982,12 +25568,14 @@
         <v>-30107814.95388658</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>6.11</v>
       </c>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25021,12 +25609,14 @@
         <v>-30263103.18748658</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>6.05</v>
       </c>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25060,12 +25650,14 @@
         <v>-30189878.53618658</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>6.045</v>
       </c>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25099,12 +25691,14 @@
         <v>-30437103.86408658</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>6.05</v>
       </c>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25138,12 +25732,14 @@
         <v>-30437103.86408658</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>6.04</v>
       </c>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25177,12 +25773,14 @@
         <v>-30627566.21158658</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>6.04</v>
       </c>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25216,12 +25814,14 @@
         <v>-30627483.40158658</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>6.034</v>
       </c>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25255,12 +25855,14 @@
         <v>-30642696.79858658</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>6.04</v>
       </c>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25294,12 +25896,14 @@
         <v>-30642696.79858658</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>6.034</v>
       </c>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25333,12 +25937,14 @@
         <v>-30630920.37268658</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
         <v>6.034</v>
       </c>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25372,12 +25978,14 @@
         <v>-31425653.55538658</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>6.05</v>
       </c>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25414,7 +26022,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25448,12 +26058,12 @@
         <v>-31998058.50308659</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J717" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25487,12 +26097,12 @@
         <v>-31998058.50308659</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
-      </c>
-      <c r="I718" t="n">
-        <v>6.049</v>
-      </c>
-      <c r="J718" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25529,7 +26139,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25563,12 +26175,12 @@
         <v>-30984676.00798659</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
-      </c>
-      <c r="I720" t="n">
-        <v>6.049</v>
-      </c>
-      <c r="J720" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25605,7 +26217,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25642,7 +26256,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25676,12 +26292,12 @@
         <v>-31318931.29298659</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
-      </c>
-      <c r="I723" t="n">
-        <v>6.028</v>
-      </c>
-      <c r="J723" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25715,12 +26331,12 @@
         <v>-31977647.92388659</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>6.026</v>
-      </c>
-      <c r="J724" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25754,12 +26370,12 @@
         <v>-33577623.93858659</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J725" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25796,7 +26412,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25833,7 +26451,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25870,7 +26490,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25907,7 +26529,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25944,7 +26568,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25978,12 +26604,12 @@
         <v>-33275729.22878659</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>6.077</v>
-      </c>
-      <c r="J731" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26020,7 +26646,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26054,12 +26682,12 @@
         <v>-33076780.29308659</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>6.089</v>
-      </c>
-      <c r="J733" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26096,7 +26724,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26133,7 +26763,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26170,7 +26802,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26207,7 +26841,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26244,7 +26880,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26281,7 +26919,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26318,7 +26958,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26355,7 +26997,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26392,7 +27036,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26429,7 +27075,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26466,7 +27114,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26503,7 +27153,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26540,7 +27192,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26577,7 +27231,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26614,7 +27270,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26651,7 +27309,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26688,7 +27348,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26725,7 +27387,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26762,7 +27426,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26799,7 +27465,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26836,7 +27504,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26873,7 +27543,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26910,7 +27582,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26947,7 +27621,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26984,7 +27660,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27021,7 +27699,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27058,7 +27738,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27095,7 +27777,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27132,7 +27816,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27169,7 +27855,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27206,7 +27894,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27243,7 +27933,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27280,7 +27972,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27317,7 +28011,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27354,7 +28050,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27391,7 +28089,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27428,7 +28128,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27462,10 +28164,14 @@
         <v>-35713341.09109689</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="J771" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27499,10 +28205,14 @@
         <v>-35713175.27929688</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>6</v>
+      </c>
+      <c r="J772" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27539,7 +28249,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27576,7 +28288,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27613,7 +28327,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27650,7 +28366,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27687,7 +28405,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27724,7 +28444,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27758,10 +28480,14 @@
         <v>-35756271.55379688</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J779" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27795,12 +28521,14 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>6.001</v>
       </c>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27834,10 +28562,14 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J781" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27871,12 +28603,14 @@
         <v>-35706188.44119688</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>6.013</v>
       </c>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27913,7 +28647,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27950,7 +28686,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27984,10 +28722,14 @@
         <v>-35720997.79449689</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J785" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28024,7 +28766,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28061,7 +28805,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28095,10 +28841,14 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J788" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28132,10 +28882,14 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J789" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28169,10 +28923,14 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J790" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28206,10 +28964,14 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J791" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28243,12 +29005,14 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>6.004</v>
       </c>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28282,12 +29046,14 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I793" t="n">
         <v>6.004</v>
       </c>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28321,12 +29087,14 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I794" t="n">
         <v>6.005</v>
       </c>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28360,10 +29128,14 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>6.005</v>
+      </c>
+      <c r="J795" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28397,12 +29169,14 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I796" t="n">
         <v>6.004</v>
       </c>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28436,12 +29210,14 @@
         <v>-35571048.16338762</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I797" t="n">
         <v>6.004</v>
       </c>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28475,12 +29251,14 @@
         <v>-35464662.45138762</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>6.013</v>
       </c>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28517,7 +29295,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28554,7 +29334,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28591,7 +29373,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28628,7 +29412,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28665,7 +29451,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28702,7 +29490,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28739,7 +29529,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28776,7 +29568,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28810,12 +29604,12 @@
         <v>-35088048.72287147</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="J807" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28852,7 +29646,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28889,7 +29685,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28923,12 +29721,12 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="n">
-        <v>6.104</v>
-      </c>
-      <c r="J810" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28965,7 +29763,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28999,10 +29799,14 @@
         <v>-35007511.09688644</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>6.107</v>
+      </c>
+      <c r="J812" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29036,12 +29840,14 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>6.108</v>
       </c>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29075,12 +29881,14 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>6.109</v>
       </c>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29114,12 +29922,14 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I815" t="n">
         <v>6.109</v>
       </c>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29153,12 +29963,14 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816" t="n">
         <v>6.111</v>
       </c>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29192,12 +30004,14 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>6.111</v>
       </c>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29231,12 +30045,14 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818" t="n">
         <v>6.091</v>
       </c>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29270,12 +30086,14 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I819" t="n">
         <v>6.091</v>
       </c>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29309,12 +30127,14 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820" t="n">
         <v>6.091</v>
       </c>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29348,12 +30168,14 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="n">
         <v>6.109</v>
       </c>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29387,12 +30209,14 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I822" t="n">
         <v>6.109</v>
       </c>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29426,12 +30250,14 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="n">
         <v>6.08</v>
       </c>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29465,12 +30291,14 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>6.08</v>
       </c>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29504,12 +30332,14 @@
         <v>-35332318.14027029</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>6.08</v>
       </c>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29543,12 +30373,14 @@
         <v>-35736717.82072632</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>6.079</v>
       </c>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29582,12 +30414,14 @@
         <v>-36087429.27842632</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>6.077</v>
       </c>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29621,12 +30455,14 @@
         <v>-36087262.96902632</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>6.003</v>
       </c>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29660,12 +30496,14 @@
         <v>-36089075.77902632</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>6.05</v>
       </c>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29699,12 +30537,14 @@
         <v>-36107408.33722632</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>6.048</v>
       </c>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29738,12 +30578,14 @@
         <v>-36381127.97942632</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>6.01</v>
       </c>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29777,12 +30619,14 @@
         <v>-36381127.97942632</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832" t="n">
         <v>6.002</v>
       </c>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29816,10 +30660,14 @@
         <v>-36381045.16942632</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>6.002</v>
+      </c>
+      <c r="J833" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29853,10 +30701,14 @@
         <v>-36434212.25332632</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J834" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29890,12 +30742,14 @@
         <v>-36252976.39542632</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>6.04</v>
       </c>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29929,12 +30783,14 @@
         <v>-36252976.39542632</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>6.069</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29968,12 +30824,14 @@
         <v>-36253794.69402632</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>6.069</v>
       </c>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30007,12 +30865,14 @@
         <v>-36273794.69402632</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>6.068</v>
       </c>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30046,12 +30906,14 @@
         <v>-36666308.56042632</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>6.066</v>
       </c>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30085,12 +30947,14 @@
         <v>-36786527.06522632</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>6.021</v>
       </c>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30124,12 +30988,14 @@
         <v>-36784428.06522632</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>6.015</v>
       </c>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30163,12 +31029,14 @@
         <v>-36816522.81692632</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>6.03</v>
       </c>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30202,12 +31070,14 @@
         <v>-36816522.81692632</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>6.015</v>
       </c>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30241,12 +31111,14 @@
         <v>-36816522.81692632</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>6.015</v>
       </c>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30280,12 +31152,14 @@
         <v>-36816522.81692632</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>6.015</v>
       </c>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30319,12 +31193,14 @@
         <v>-36816522.81692632</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>6.015</v>
       </c>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30358,12 +31234,14 @@
         <v>-36677318.81832632</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>6.015</v>
       </c>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30397,12 +31275,14 @@
         <v>-36677318.81832632</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>6.03</v>
       </c>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30436,12 +31316,14 @@
         <v>-36918218.76582632</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>6.03</v>
       </c>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30475,12 +31357,14 @@
         <v>-36348551.36552632</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>6.006</v>
       </c>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30514,12 +31398,14 @@
         <v>-36348551.36552632</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>6.065</v>
       </c>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30553,12 +31439,14 @@
         <v>-36342451.36552632</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>6.065</v>
       </c>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30592,12 +31480,14 @@
         <v>-36342451.36552632</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>6.067</v>
       </c>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30631,12 +31521,14 @@
         <v>-36342951.36552632</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>6.067</v>
       </c>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30670,12 +31562,14 @@
         <v>-36336628.53152632</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>6.06</v>
       </c>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30709,12 +31603,14 @@
         <v>-36337478.53152632</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>6.066</v>
       </c>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30748,12 +31644,14 @@
         <v>-36337478.53152632</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>6.06</v>
       </c>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30787,12 +31685,14 @@
         <v>-36540604.35882632</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>6.06</v>
       </c>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30826,12 +31726,14 @@
         <v>-36520109.07402632</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>6.03</v>
       </c>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30865,12 +31767,14 @@
         <v>-36220109.07402632</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>6.06</v>
       </c>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30904,12 +31808,14 @@
         <v>-36220109.07402632</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I861" t="n">
         <v>6.068</v>
       </c>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30943,12 +31849,14 @@
         <v>-36220109.07402632</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I862" t="n">
         <v>6.068</v>
       </c>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30982,12 +31890,14 @@
         <v>-36220109.07402632</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I863" t="n">
         <v>6.068</v>
       </c>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31021,12 +31931,14 @@
         <v>-36324756.24432632</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>6.068</v>
       </c>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31060,12 +31972,14 @@
         <v>-36275081.58032632</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>6.018</v>
       </c>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31099,12 +32013,14 @@
         <v>-36275081.58032632</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>6.074</v>
       </c>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31138,12 +32054,14 @@
         <v>-36271472.58032632</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867" t="n">
         <v>6.074</v>
       </c>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31180,7 +32098,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31217,7 +32137,9 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31254,7 +32176,9 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31291,7 +32215,9 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31325,12 +32251,12 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
-      </c>
-      <c r="I872" t="n">
-        <v>6.111</v>
-      </c>
-      <c r="J872" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31364,12 +32290,12 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="n">
-        <v>6.111</v>
-      </c>
-      <c r="J873" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31403,12 +32329,12 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="n">
-        <v>6.111</v>
-      </c>
-      <c r="J874" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31442,12 +32368,12 @@
         <v>-36013611.72382632</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="n">
-        <v>6.111</v>
-      </c>
-      <c r="J875" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31481,12 +32407,12 @@
         <v>-35694204.54482632</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="n">
-        <v>6.122</v>
-      </c>
-      <c r="J876" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31520,12 +32446,12 @@
         <v>-35033921.62562632</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
-      </c>
-      <c r="I877" t="n">
-        <v>6.138</v>
-      </c>
-      <c r="J877" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31562,7 +32488,9 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31599,7 +32527,9 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31636,7 +32566,9 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31670,12 +32602,12 @@
         <v>-34600423.80562632</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
-      </c>
-      <c r="I881" t="n">
-        <v>6.178</v>
-      </c>
-      <c r="J881" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31709,12 +32641,12 @@
         <v>-34610236.70742632</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
-      </c>
-      <c r="I882" t="n">
-        <v>6.178</v>
-      </c>
-      <c r="J882" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31748,12 +32680,12 @@
         <v>-34610236.70742632</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
-      </c>
-      <c r="I883" t="n">
-        <v>6.177</v>
-      </c>
-      <c r="J883" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31787,12 +32719,12 @@
         <v>-34618337.66222632</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
-      </c>
-      <c r="I884" t="n">
-        <v>6.177</v>
-      </c>
-      <c r="J884" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31826,12 +32758,12 @@
         <v>-34618337.66222632</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
-      </c>
-      <c r="I885" t="n">
-        <v>6.175</v>
-      </c>
-      <c r="J885" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31865,12 +32797,12 @@
         <v>-34735075.96172632</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
-      </c>
-      <c r="I886" t="n">
-        <v>6.175</v>
-      </c>
-      <c r="J886" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31904,12 +32836,12 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
-      </c>
-      <c r="I887" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="J887" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31943,12 +32875,14 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I888" t="n">
         <v>6.155</v>
       </c>
-      <c r="J888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31982,12 +32916,14 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I889" t="n">
         <v>6.155</v>
       </c>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32021,12 +32957,14 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
         <v>6.155</v>
       </c>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32060,12 +32998,14 @@
         <v>-35283357.25962633</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
         <v>6.155</v>
       </c>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32099,12 +33039,14 @@
         <v>-35286797.70862633</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I892" t="n">
         <v>6.15</v>
       </c>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32138,12 +33080,14 @@
         <v>-35452015.90282633</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>6.12</v>
       </c>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32177,12 +33121,14 @@
         <v>-35602652.67442633</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>6.098</v>
       </c>
-      <c r="J894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32216,12 +33162,14 @@
         <v>-35753403.55582633</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>6.065</v>
       </c>
-      <c r="J895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32255,12 +33203,14 @@
         <v>-35667851.20282633</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>6.043</v>
       </c>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32294,12 +33244,14 @@
         <v>-35667851.20282633</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>6.11</v>
       </c>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32333,12 +33285,14 @@
         <v>-35667851.20282633</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>6.11</v>
       </c>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32372,12 +33326,14 @@
         <v>-35828638.46572633</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>6.11</v>
       </c>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32411,12 +33367,14 @@
         <v>-35828638.46572633</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>6.031</v>
       </c>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32450,12 +33408,14 @@
         <v>-35827820.90132633</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>6.031</v>
       </c>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>5.826</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32467,6 +33427,6 @@
       <c r="M901" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XSR.xlsx
+++ b/BackTest/2020-01-16 BackTest XSR.xlsx
@@ -6127,7 +6127,7 @@
         <v>-11521530.67314828</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-11500881.15244828</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-11257596.63954828</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-10936716.69384828</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-11209210.67556179</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-10803089.50786179</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-10803089.50786179</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-11085259.44926179</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-10925025.18736179</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-10920937.12476179</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-10528259.20666179</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-10535952.22406179</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-10536768.39926179</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-10220918.42686179</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-10521677.08706179</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-10304170.00716179</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-10036928.58286179</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-9948687.582861794</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-9820720.318414271</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-9300969.577210894</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-9322525.156810895</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-9284346.196610894</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-9450064.596110893</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-9360269.796610894</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-9346447.736510893</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-9409264.039610893</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-9414633.419710893</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-10220644.07331089</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-10242552.74231089</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10299911.94051089</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-10280325.04361089</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-10279569.75131089</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-10093031.60321089</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-10093141.74811089</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-10100600.05501089</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-9908294.954710893</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-9986998.740010893</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-10247860.79571089</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-10456925.09001089</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-10457604.64601089</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-10976952.27321089</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -26125,10 +26125,14 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="J780" t="n">
+        <v>6.001</v>
+      </c>
       <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
@@ -26158,11 +26162,19 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J781" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26194,8 +26206,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26290,10 +26308,14 @@
         <v>-35720997.79449689</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J785" t="n">
+        <v>6.013</v>
+      </c>
       <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
@@ -26326,8 +26348,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26384,19 @@
         <v>-35787481.00958762</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J787" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26425,19 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J788" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26466,19 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J789" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26507,19 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J790" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26548,19 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J791" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26589,19 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>6.004</v>
+      </c>
+      <c r="J792" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26630,19 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>6.004</v>
+      </c>
+      <c r="J793" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +26671,19 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>6.005</v>
+      </c>
+      <c r="J794" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26712,19 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>6.005</v>
+      </c>
+      <c r="J795" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26753,19 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>6.004</v>
+      </c>
+      <c r="J796" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26794,19 @@
         <v>-35571048.16338762</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>6.004</v>
+      </c>
+      <c r="J797" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26835,19 @@
         <v>-35464662.45138762</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J798" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +26876,19 @@
         <v>-35405690.12508762</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>6.049</v>
+      </c>
+      <c r="J799" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26788,8 +26920,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26821,8 +26959,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26854,8 +26998,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +27034,19 @@
         <v>-35091813.40408761</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>6.089</v>
+      </c>
+      <c r="J803" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +27075,19 @@
         <v>-35091813.40408761</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J804" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +27116,19 @@
         <v>-35091813.40408761</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J805" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +27157,19 @@
         <v>-35129735.98148761</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J806" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27016,11 +27198,19 @@
         <v>-35088048.72287147</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="J807" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27049,11 +27239,19 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J808" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27082,11 +27280,19 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>6.104</v>
+      </c>
+      <c r="J809" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27115,11 +27321,19 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>6.104</v>
+      </c>
+      <c r="J810" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27148,11 +27362,19 @@
         <v>-35008510.09688644</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>6.104</v>
+      </c>
+      <c r="J811" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27181,11 +27403,19 @@
         <v>-35007511.09688644</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>6.107</v>
+      </c>
+      <c r="J812" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27214,11 +27444,19 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>6.108</v>
+      </c>
+      <c r="J813" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27247,11 +27485,19 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="J814" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27280,11 +27526,19 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="J815" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27313,11 +27567,19 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>6.111</v>
+      </c>
+      <c r="J816" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27346,11 +27608,19 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>6.111</v>
+      </c>
+      <c r="J817" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,11 +27649,19 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J818" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +27690,19 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J819" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +27731,19 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>6.091</v>
+      </c>
+      <c r="J820" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +27772,19 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="J821" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +27813,19 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="J822" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,11 +27854,19 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J823" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +27895,19 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J824" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27610,11 +27936,19 @@
         <v>-35332318.14027029</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J825" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +27977,19 @@
         <v>-35736717.82072632</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>6.079</v>
+      </c>
+      <c r="J826" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +28018,19 @@
         <v>-36087429.27842632</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="J827" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27715,9 +28065,13 @@
         <v>6.003</v>
       </c>
       <c r="J828" t="n">
-        <v>6.003</v>
-      </c>
-      <c r="K828" t="inlineStr"/>
+        <v>6.013</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27752,11 +28106,11 @@
         <v>6.05</v>
       </c>
       <c r="J829" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L829" t="n">
@@ -27793,11 +28147,11 @@
         <v>6.048</v>
       </c>
       <c r="J830" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L830" t="n">
@@ -27834,11 +28188,11 @@
         <v>6.01</v>
       </c>
       <c r="J831" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L831" t="n">
@@ -27875,7 +28229,7 @@
         <v>6.002</v>
       </c>
       <c r="J832" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -27916,7 +28270,7 @@
         <v>6.002</v>
       </c>
       <c r="J833" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -27957,7 +28311,7 @@
         <v>6.05</v>
       </c>
       <c r="J834" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -27998,7 +28352,7 @@
         <v>6.04</v>
       </c>
       <c r="J835" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28039,7 +28393,7 @@
         <v>6.069</v>
       </c>
       <c r="J836" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28080,7 +28434,7 @@
         <v>6.069</v>
       </c>
       <c r="J837" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28121,7 +28475,7 @@
         <v>6.068</v>
       </c>
       <c r="J838" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28162,7 +28516,7 @@
         <v>6.066</v>
       </c>
       <c r="J839" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28203,7 +28557,7 @@
         <v>6.021</v>
       </c>
       <c r="J840" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28244,7 +28598,7 @@
         <v>6.015</v>
       </c>
       <c r="J841" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28285,7 +28639,7 @@
         <v>6.03</v>
       </c>
       <c r="J842" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -28326,7 +28680,7 @@
         <v>6.015</v>
       </c>
       <c r="J843" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -28367,7 +28721,7 @@
         <v>6.015</v>
       </c>
       <c r="J844" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -28408,7 +28762,7 @@
         <v>6.015</v>
       </c>
       <c r="J845" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -28449,7 +28803,7 @@
         <v>6.015</v>
       </c>
       <c r="J846" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -28490,7 +28844,7 @@
         <v>6.015</v>
       </c>
       <c r="J847" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -28531,7 +28885,7 @@
         <v>6.03</v>
       </c>
       <c r="J848" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -28572,7 +28926,7 @@
         <v>6.03</v>
       </c>
       <c r="J849" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -28613,7 +28967,7 @@
         <v>6.006</v>
       </c>
       <c r="J850" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -28654,7 +29008,7 @@
         <v>6.065</v>
       </c>
       <c r="J851" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -28695,7 +29049,7 @@
         <v>6.065</v>
       </c>
       <c r="J852" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -28736,7 +29090,7 @@
         <v>6.067</v>
       </c>
       <c r="J853" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -28777,7 +29131,7 @@
         <v>6.067</v>
       </c>
       <c r="J854" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -28818,7 +29172,7 @@
         <v>6.06</v>
       </c>
       <c r="J855" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -28859,7 +29213,7 @@
         <v>6.066</v>
       </c>
       <c r="J856" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -28900,7 +29254,7 @@
         <v>6.06</v>
       </c>
       <c r="J857" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -28941,7 +29295,7 @@
         <v>6.06</v>
       </c>
       <c r="J858" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -28982,7 +29336,7 @@
         <v>6.03</v>
       </c>
       <c r="J859" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29023,7 +29377,7 @@
         <v>6.06</v>
       </c>
       <c r="J860" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29064,7 +29418,7 @@
         <v>6.068</v>
       </c>
       <c r="J861" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29105,7 +29459,7 @@
         <v>6.068</v>
       </c>
       <c r="J862" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29146,7 +29500,7 @@
         <v>6.068</v>
       </c>
       <c r="J863" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29187,7 +29541,7 @@
         <v>6.068</v>
       </c>
       <c r="J864" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29228,7 +29582,7 @@
         <v>6.018</v>
       </c>
       <c r="J865" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29269,7 +29623,7 @@
         <v>6.074</v>
       </c>
       <c r="J866" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29310,7 +29664,7 @@
         <v>6.074</v>
       </c>
       <c r="J867" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29351,7 +29705,7 @@
         <v>6.101</v>
       </c>
       <c r="J868" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29386,11 +29740,13 @@
         <v>-36270029.58032632</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>6.103</v>
+      </c>
       <c r="J869" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29425,11 +29781,13 @@
         <v>-36228350.13132632</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>6.103</v>
+      </c>
       <c r="J870" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29464,11 +29822,13 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>6.107</v>
+      </c>
       <c r="J871" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29503,11 +29863,13 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>6.111</v>
+      </c>
       <c r="J872" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29542,11 +29904,13 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>6.111</v>
+      </c>
       <c r="J873" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -29581,11 +29945,13 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>6.111</v>
+      </c>
       <c r="J874" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -29620,11 +29986,13 @@
         <v>-36013611.72382632</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>6.111</v>
+      </c>
       <c r="J875" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -29659,11 +30027,13 @@
         <v>-35694204.54482632</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>6.122</v>
+      </c>
       <c r="J876" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -29698,11 +30068,13 @@
         <v>-35033921.62562632</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>6.138</v>
+      </c>
       <c r="J877" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -29737,11 +30109,13 @@
         <v>-34920766.83292632</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>6.145</v>
+      </c>
       <c r="J878" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -29776,11 +30150,13 @@
         <v>-34705330.40112632</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>6.15</v>
+      </c>
       <c r="J879" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -29815,11 +30191,13 @@
         <v>-34600423.80562632</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>6.165</v>
+      </c>
       <c r="J880" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -29854,11 +30232,13 @@
         <v>-34600423.80562632</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>6.178</v>
+      </c>
       <c r="J881" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -29897,7 +30277,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -29936,7 +30316,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -29971,11 +30351,13 @@
         <v>-34618337.66222632</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>6.177</v>
+      </c>
       <c r="J884" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30014,7 +30396,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30049,11 +30431,13 @@
         <v>-34735075.96172632</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>6.175</v>
+      </c>
       <c r="J886" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30088,11 +30472,13 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>6.16</v>
+      </c>
       <c r="J887" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30127,11 +30513,13 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>6.155</v>
+      </c>
       <c r="J888" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30166,11 +30554,13 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>6.155</v>
+      </c>
       <c r="J889" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30205,11 +30595,13 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>6.155</v>
+      </c>
       <c r="J890" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30244,11 +30636,13 @@
         <v>-35283357.25962633</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>6.155</v>
+      </c>
       <c r="J891" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30283,11 +30677,13 @@
         <v>-35286797.70862633</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>6.15</v>
+      </c>
       <c r="J892" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30322,11 +30718,13 @@
         <v>-35452015.90282633</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>6.12</v>
+      </c>
       <c r="J893" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30361,11 +30759,13 @@
         <v>-35602652.67442633</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>6.098</v>
+      </c>
       <c r="J894" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30400,11 +30800,13 @@
         <v>-35753403.55582633</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>6.065</v>
+      </c>
       <c r="J895" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30445,7 +30847,7 @@
         <v>6.043</v>
       </c>
       <c r="J896" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30486,7 +30888,7 @@
         <v>6.11</v>
       </c>
       <c r="J897" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30521,11 +30923,13 @@
         <v>-35667851.20282633</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>6.11</v>
+      </c>
       <c r="J898" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30560,11 +30964,13 @@
         <v>-35828638.46572633</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>6.11</v>
+      </c>
       <c r="J899" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -30605,7 +31011,7 @@
         <v>6.031</v>
       </c>
       <c r="J900" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -30646,7 +31052,7 @@
         <v>6.031</v>
       </c>
       <c r="J901" t="n">
-        <v>6.003</v>
+        <v>6.013</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
